--- a/Домашнее задание 3.xlsx
+++ b/Домашнее задание 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MiFirst-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>№</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Нет возможности ввести цифры.</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -440,12 +443,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -454,27 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +788,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -798,43 +801,43 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="3"/>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="P1" s="15"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="15"/>
+      <c r="R1" s="23"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="15"/>
+      <c r="T1" s="23"/>
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -844,29 +847,29 @@
     </row>
     <row r="2" spans="1:26" ht="126.95" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="19"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="15"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="15"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="15"/>
+      <c r="R2" s="23"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="15"/>
+      <c r="T2" s="23"/>
       <c r="U2" s="3"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -879,7 +882,7 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -892,7 +895,9 @@
         <v>11</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="9"/>
       <c r="K3" s="11"/>
@@ -996,7 +1001,7 @@
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="6"/>
@@ -1517,12 +1522,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -1530,6 +1529,12 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N3:N19 T3:T19 P3:P19 R3:R19 L3:L19 L21 R21 P21 T21 N21">
